--- a/data/league_data/spain/20/spain_std.xlsx
+++ b/data/league_data/spain/20/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1658B-0329-CA49-A4A8-560CEC997097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D7F6E-BBA1-2742-AC5F-D02A75331BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
   <si>
     <t>Player</t>
   </si>
@@ -1595,6 +1595,12 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
@@ -2461,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2497,7 @@
     <col min="27" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6643,7 +6649,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>526</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
@@ -36523,7 +36529,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>50</v>

--- a/data/league_data/spain/20/spain_std.xlsx
+++ b/data/league_data/spain/20/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D7F6E-BBA1-2742-AC5F-D02A75331BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42079F01-0C3B-3C4B-B5C0-E49449D5ED27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="528">
   <si>
     <t>Player</t>
   </si>
@@ -934,9 +934,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1601,6 +1598,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2467,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6649,7 +6652,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
@@ -24577,7 +24580,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>304</v>
+        <v>527</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>38</v>
@@ -24660,7 +24663,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>68</v>
@@ -24743,7 +24746,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>27</v>
@@ -24826,7 +24829,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>44</v>
@@ -24909,7 +24912,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>46</v>
@@ -24992,7 +24995,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>95</v>
@@ -25075,7 +25078,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>50</v>
@@ -25158,7 +25161,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>95</v>
@@ -25241,7 +25244,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>73</v>
@@ -25324,7 +25327,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>68</v>
@@ -25407,7 +25410,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>38</v>
@@ -25490,7 +25493,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>66</v>
@@ -25573,7 +25576,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>25</v>
@@ -25656,7 +25659,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>32</v>
@@ -25739,7 +25742,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>97</v>
@@ -25822,7 +25825,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>23</v>
@@ -25905,7 +25908,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>97</v>
@@ -25988,7 +25991,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>25</v>
@@ -26071,7 +26074,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>23</v>
@@ -26154,7 +26157,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>48</v>
@@ -26237,7 +26240,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>95</v>
@@ -26320,7 +26323,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>48</v>
@@ -26403,7 +26406,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>50</v>
@@ -26486,7 +26489,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>21</v>
@@ -26569,7 +26572,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>36</v>
@@ -26652,7 +26655,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>42</v>
@@ -26735,7 +26738,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>52</v>
@@ -26818,7 +26821,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>52</v>
@@ -26901,7 +26904,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>73</v>
@@ -26984,7 +26987,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>333</v>
+        <v>526</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>44</v>
@@ -27067,7 +27070,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>23</v>
@@ -27150,7 +27153,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>44</v>
@@ -27233,7 +27236,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>48</v>
@@ -27316,7 +27319,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>38</v>
@@ -27399,7 +27402,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -27482,7 +27485,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>50</v>
@@ -27565,7 +27568,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>38</v>
@@ -27648,7 +27651,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>95</v>
@@ -27731,7 +27734,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>23</v>
@@ -27814,7 +27817,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>50</v>
@@ -27897,7 +27900,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>73</v>
@@ -27980,7 +27983,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>38</v>
@@ -28063,7 +28066,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>38</v>
@@ -28146,7 +28149,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>46</v>
@@ -28229,7 +28232,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>36</v>
@@ -28312,7 +28315,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>50</v>
@@ -28395,7 +28398,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>38</v>
@@ -28478,7 +28481,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>36</v>
@@ -28561,7 +28564,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>46</v>
@@ -28644,7 +28647,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>50</v>
@@ -28810,7 +28813,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>32</v>
@@ -28893,7 +28896,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>97</v>
@@ -28976,7 +28979,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>29</v>
@@ -29059,7 +29062,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>52</v>
@@ -29142,7 +29145,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>48</v>
@@ -29225,7 +29228,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>97</v>
@@ -29308,7 +29311,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>21</v>
@@ -29391,7 +29394,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>36</v>
@@ -29474,7 +29477,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>52</v>
@@ -29557,7 +29560,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>42</v>
@@ -29640,7 +29643,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>29</v>
@@ -29723,7 +29726,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>68</v>
@@ -29806,7 +29809,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>44</v>
@@ -29889,7 +29892,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>23</v>
@@ -29972,7 +29975,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>25</v>
@@ -30055,7 +30058,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>42</v>
@@ -30138,7 +30141,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>29</v>
@@ -30221,7 +30224,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>27</v>
@@ -30304,7 +30307,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>73</v>
@@ -30387,7 +30390,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>46</v>
@@ -30470,7 +30473,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>38</v>
@@ -30553,7 +30556,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>44</v>
@@ -30636,7 +30639,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>48</v>
@@ -30719,7 +30722,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>95</v>
@@ -30802,7 +30805,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>95</v>
@@ -30885,7 +30888,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>25</v>
@@ -30968,7 +30971,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>50</v>
@@ -31051,7 +31054,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>97</v>
@@ -31134,7 +31137,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>32</v>
@@ -31217,7 +31220,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>34</v>
@@ -31300,7 +31303,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>97</v>
@@ -31383,7 +31386,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>73</v>
@@ -31549,7 +31552,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>95</v>
@@ -31632,7 +31635,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>95</v>
@@ -31715,7 +31718,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>25</v>
@@ -31798,7 +31801,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>42</v>
@@ -31881,7 +31884,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>97</v>
@@ -31964,7 +31967,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>25</v>
@@ -32047,7 +32050,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>68</v>
@@ -32130,7 +32133,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>27</v>
@@ -32213,7 +32216,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>42</v>
@@ -32296,7 +32299,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>46</v>
@@ -32379,7 +32382,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>66</v>
@@ -32462,7 +32465,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>25</v>
@@ -32545,7 +32548,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>48</v>
@@ -32628,7 +32631,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>52</v>
@@ -32711,7 +32714,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>73</v>
@@ -32794,7 +32797,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>27</v>
@@ -32877,7 +32880,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>73</v>
@@ -32960,7 +32963,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>66</v>
@@ -33043,7 +33046,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>29</v>
@@ -33126,7 +33129,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>42</v>
@@ -33209,7 +33212,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>32</v>
@@ -33292,7 +33295,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>68</v>
@@ -33375,7 +33378,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>32</v>
@@ -33458,7 +33461,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>42</v>
@@ -33541,7 +33544,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>23</v>
@@ -33624,7 +33627,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>48</v>
@@ -33707,7 +33710,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>66</v>
@@ -33790,7 +33793,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>27</v>
@@ -33873,7 +33876,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>21</v>
@@ -33956,7 +33959,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>21</v>
@@ -34039,7 +34042,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>38</v>
@@ -34122,7 +34125,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>95</v>
@@ -34205,7 +34208,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>66</v>
@@ -34288,7 +34291,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>97</v>
@@ -34371,7 +34374,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>27</v>
@@ -34454,7 +34457,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>73</v>
@@ -34537,7 +34540,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>73</v>
@@ -34620,7 +34623,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>66</v>
@@ -34703,7 +34706,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>97</v>
@@ -34786,7 +34789,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>42</v>
@@ -34869,7 +34872,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>66</v>
@@ -34952,7 +34955,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>52</v>
@@ -35035,7 +35038,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>36</v>
@@ -35118,7 +35121,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>25</v>
@@ -35201,7 +35204,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>68</v>
@@ -35284,7 +35287,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>46</v>
@@ -35367,7 +35370,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>32</v>
@@ -35450,7 +35453,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>44</v>
@@ -35533,7 +35536,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>34</v>
@@ -35616,7 +35619,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>38</v>
@@ -35699,7 +35702,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>36</v>
@@ -35782,7 +35785,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>38</v>
@@ -35865,7 +35868,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>73</v>
@@ -35948,7 +35951,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>32</v>
@@ -36031,7 +36034,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>44</v>
@@ -36114,7 +36117,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>46</v>
@@ -36197,7 +36200,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>29</v>
@@ -36280,7 +36283,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>25</v>
@@ -36363,7 +36366,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>68</v>
@@ -36446,7 +36449,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>52</v>
@@ -36529,7 +36532,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>50</v>
@@ -36612,7 +36615,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>50</v>
@@ -36695,7 +36698,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>44</v>
@@ -36778,7 +36781,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>66</v>
@@ -36861,7 +36864,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>50</v>
@@ -36944,7 +36947,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>68</v>
@@ -37110,7 +37113,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>73</v>
@@ -37193,7 +37196,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>21</v>
@@ -37276,7 +37279,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>66</v>
@@ -37359,7 +37362,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>21</v>
@@ -37442,7 +37445,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>42</v>
@@ -37525,7 +37528,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>21</v>
@@ -37608,7 +37611,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>27</v>
@@ -37691,7 +37694,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>52</v>
@@ -37774,7 +37777,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>50</v>
@@ -37857,7 +37860,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>48</v>
@@ -37940,7 +37943,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>36</v>
@@ -38023,7 +38026,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>29</v>
@@ -38106,7 +38109,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>66</v>
@@ -38189,7 +38192,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>66</v>
@@ -38272,7 +38275,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>23</v>
@@ -38355,7 +38358,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>42</v>
@@ -38438,7 +38441,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>27</v>
@@ -38521,7 +38524,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>50</v>
@@ -38604,7 +38607,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>97</v>
@@ -38687,7 +38690,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>50</v>
@@ -38770,7 +38773,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>34</v>
@@ -38853,7 +38856,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>27</v>
@@ -38936,7 +38939,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>23</v>
@@ -39019,7 +39022,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>73</v>
@@ -39102,7 +39105,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>97</v>
@@ -39185,7 +39188,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>21</v>
@@ -39268,7 +39271,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>38</v>
@@ -39351,7 +39354,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>34</v>
@@ -39434,7 +39437,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>27</v>
@@ -39517,7 +39520,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>21</v>
@@ -39600,7 +39603,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>38</v>
@@ -39683,7 +39686,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>48</v>
@@ -39766,7 +39769,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>95</v>
@@ -39849,7 +39852,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>44</v>
@@ -39932,7 +39935,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>68</v>
@@ -40015,7 +40018,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>42</v>
@@ -40098,7 +40101,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>27</v>
@@ -40181,7 +40184,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>29</v>
@@ -40264,7 +40267,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>66</v>
@@ -40347,7 +40350,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>29</v>
@@ -40430,7 +40433,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>46</v>
@@ -40596,7 +40599,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>38</v>
@@ -40679,7 +40682,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>73</v>
@@ -40762,7 +40765,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>36</v>
@@ -40845,7 +40848,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>48</v>
@@ -40928,7 +40931,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>46</v>
@@ -41011,7 +41014,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>95</v>
@@ -41094,7 +41097,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>48</v>
@@ -41177,7 +41180,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>52</v>
@@ -41260,7 +41263,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>97</v>
@@ -41343,7 +41346,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>46</v>
@@ -41426,7 +41429,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>66</v>
@@ -41509,7 +41512,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>34</v>
@@ -41592,7 +41595,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>21</v>
@@ -41675,7 +41678,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>42</v>
@@ -41758,7 +41761,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>73</v>
@@ -41841,7 +41844,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>46</v>
@@ -42007,7 +42010,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>32</v>
@@ -42090,7 +42093,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>27</v>
@@ -42173,7 +42176,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>97</v>
@@ -42256,7 +42259,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>29</v>
@@ -42339,7 +42342,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>48</v>
@@ -42422,7 +42425,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>21</v>
@@ -42505,7 +42508,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>36</v>
@@ -42588,7 +42591,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>38</v>
@@ -42671,7 +42674,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>73</v>
@@ -42754,7 +42757,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>38</v>
@@ -42837,7 +42840,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>32</v>
@@ -42920,7 +42923,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>36</v>
@@ -43003,7 +43006,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>38</v>
@@ -43086,7 +43089,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>68</v>
@@ -43169,7 +43172,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>46</v>
@@ -43252,7 +43255,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>46</v>
@@ -43335,7 +43338,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>21</v>
@@ -43418,7 +43421,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>95</v>
@@ -43501,7 +43504,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>34</v>
@@ -43584,7 +43587,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>52</v>
@@ -43667,7 +43670,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>25</v>
@@ -43750,7 +43753,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>68</v>
@@ -43833,7 +43836,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>34</v>
@@ -43916,7 +43919,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>97</v>

--- a/data/league_data/spain/20/spain_std.xlsx
+++ b/data/league_data/spain/20/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42079F01-0C3B-3C4B-B5C0-E49449D5ED27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CA736-2596-EF44-BD31-555D53FDD90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,9 +289,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1604,6 +1601,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2470,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>66</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>50</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>66</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>73</v>
@@ -7233,10 +7233,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C58" s="2">
         <v>36</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C59" s="2">
         <v>33</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>34</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>34</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>21</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>50</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>68</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>46</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>73</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>23</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2">
         <v>33</v>
@@ -8312,10 +8312,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2">
         <v>31</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>38</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>25</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>46</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>50</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2">
         <v>31</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>42</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>52</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>73</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>32</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>21</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>29</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>48</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>34</v>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>36</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>23</v>
@@ -9806,7 +9806,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>52</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>52</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>42</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>32</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>25</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>27</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>46</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2">
         <v>34</v>
@@ -10470,7 +10470,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>38</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>36</v>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>25</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>38</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>29</v>
@@ -10885,10 +10885,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2">
         <v>27</v>
@@ -10968,7 +10968,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>32</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>36</v>
@@ -11134,7 +11134,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>21</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>52</v>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>23</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>52</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>44</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>52</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>66</v>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>32</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>48</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>44</v>
@@ -11964,10 +11964,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2">
         <v>27</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>48</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>36</v>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>46</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>52</v>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>73</v>
@@ -12462,7 +12462,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>29</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>44</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>25</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>34</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>48</v>
@@ -12960,7 +12960,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>32</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>42</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>38</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>44</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>25</v>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>52</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>68</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>73</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>46</v>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>48</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>48</v>
@@ -13873,10 +13873,10 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="2">
         <v>26</v>
@@ -13956,7 +13956,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>36</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>73</v>
@@ -14122,7 +14122,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>34</v>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>46</v>
@@ -14288,10 +14288,10 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C143" s="2">
         <v>29</v>
@@ -14371,7 +14371,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>68</v>
@@ -14454,7 +14454,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>32</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>48</v>
@@ -14620,10 +14620,10 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C147" s="2">
         <v>25</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>32</v>
@@ -14786,7 +14786,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>36</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>27</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>23</v>
@@ -15035,10 +15035,10 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="2">
         <v>31</v>
@@ -15118,7 +15118,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>68</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>23</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>36</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>44</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>68</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>23</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>42</v>
@@ -15699,7 +15699,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>25</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>29</v>
@@ -15865,7 +15865,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>42</v>
@@ -15948,7 +15948,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>42</v>
@@ -16031,10 +16031,10 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2">
         <v>29</v>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>44</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>52</v>
@@ -16280,10 +16280,10 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C167" s="2">
         <v>26</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>50</v>
@@ -16446,7 +16446,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>36</v>
@@ -16529,7 +16529,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>68</v>
@@ -16612,7 +16612,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>32</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>23</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>23</v>
@@ -16861,10 +16861,10 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C174" s="2">
         <v>30</v>
@@ -16944,7 +16944,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>27</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>29</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>44</v>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>27</v>
@@ -17276,7 +17276,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>27</v>
@@ -17359,10 +17359,10 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C180" s="2">
         <v>24</v>
@@ -17442,10 +17442,10 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C181" s="2">
         <v>26</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>46</v>
@@ -17608,7 +17608,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>42</v>
@@ -17691,10 +17691,10 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C184" s="2">
         <v>30</v>
@@ -17774,10 +17774,10 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C185" s="2">
         <v>24</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>68</v>
@@ -17940,7 +17940,7 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>29</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>50</v>
@@ -18106,7 +18106,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>44</v>
@@ -18189,10 +18189,10 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C190" s="2">
         <v>23</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>21</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>46</v>
@@ -18438,7 +18438,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>68</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>21</v>
@@ -18604,10 +18604,10 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195" s="2">
         <v>23</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>32</v>
@@ -18770,10 +18770,10 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C197" s="2">
         <v>25</v>
@@ -18853,7 +18853,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>44</v>
@@ -18936,7 +18936,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>32</v>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>27</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>34</v>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>38</v>
@@ -19268,7 +19268,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>68</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>50</v>
@@ -19434,7 +19434,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>66</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>44</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>34</v>
@@ -19683,7 +19683,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>44</v>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>23</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>46</v>
@@ -19932,7 +19932,7 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>23</v>
@@ -20015,7 +20015,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>38</v>
@@ -20098,7 +20098,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>34</v>
@@ -20181,7 +20181,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>38</v>
@@ -20264,7 +20264,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>44</v>
@@ -20347,7 +20347,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>36</v>
@@ -20430,7 +20430,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>46</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>73</v>
@@ -20596,10 +20596,10 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C219" s="2">
         <v>28</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>27</v>
@@ -20762,7 +20762,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>44</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>73</v>
@@ -20928,7 +20928,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>36</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>32</v>
@@ -21094,7 +21094,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>25</v>
@@ -21177,7 +21177,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>68</v>
@@ -21260,7 +21260,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>73</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>66</v>
@@ -21426,7 +21426,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>29</v>
@@ -21509,10 +21509,10 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C230" s="2">
         <v>25</v>
@@ -21592,7 +21592,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>32</v>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>29</v>
@@ -21758,7 +21758,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>21</v>
@@ -21841,7 +21841,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>38</v>
@@ -21924,7 +21924,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>27</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>52</v>
@@ -22090,7 +22090,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>48</v>
@@ -22173,7 +22173,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>48</v>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>52</v>
@@ -22339,7 +22339,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>73</v>
@@ -22422,7 +22422,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>34</v>
@@ -22505,7 +22505,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>34</v>
@@ -22588,7 +22588,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>27</v>
@@ -22671,7 +22671,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>29</v>
@@ -22754,7 +22754,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>21</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>44</v>
@@ -22920,7 +22920,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>66</v>
@@ -23003,7 +23003,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>68</v>
@@ -23086,7 +23086,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>68</v>
@@ -23169,7 +23169,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>73</v>
@@ -23252,10 +23252,10 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C251" s="2">
         <v>31</v>
@@ -23335,7 +23335,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>42</v>
@@ -23418,7 +23418,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>21</v>
@@ -23501,7 +23501,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>68</v>
@@ -23584,10 +23584,10 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C255" s="2">
         <v>18</v>
@@ -23667,7 +23667,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>27</v>
@@ -23750,7 +23750,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>38</v>
@@ -23833,7 +23833,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>38</v>
@@ -23916,7 +23916,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>50</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>23</v>
@@ -24082,7 +24082,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>48</v>
@@ -24165,7 +24165,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>34</v>
@@ -24248,7 +24248,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>23</v>
@@ -24331,7 +24331,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>42</v>
@@ -24414,7 +24414,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>46</v>
@@ -24497,10 +24497,10 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C266" s="2">
         <v>20</v>
@@ -24580,7 +24580,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>38</v>
@@ -24663,7 +24663,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>68</v>
@@ -24746,7 +24746,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>27</v>
@@ -24829,7 +24829,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>44</v>
@@ -24912,7 +24912,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>46</v>
@@ -24995,10 +24995,10 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C272" s="2">
         <v>17</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>50</v>
@@ -25161,10 +25161,10 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C274" s="2">
         <v>16</v>
@@ -25244,7 +25244,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>73</v>
@@ -25327,7 +25327,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>68</v>
@@ -25410,7 +25410,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>38</v>
@@ -25493,7 +25493,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>66</v>
@@ -25576,7 +25576,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>25</v>
@@ -25659,7 +25659,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>32</v>
@@ -25742,10 +25742,10 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C281" s="2">
         <v>25</v>
@@ -25825,7 +25825,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>23</v>
@@ -25908,10 +25908,10 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C283" s="2">
         <v>24</v>
@@ -25991,7 +25991,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>25</v>
@@ -26074,7 +26074,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>23</v>
@@ -26157,7 +26157,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>48</v>
@@ -26240,10 +26240,10 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C287" s="2">
         <v>17</v>
@@ -26323,7 +26323,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>48</v>
@@ -26406,7 +26406,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>50</v>
@@ -26489,7 +26489,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>21</v>
@@ -26572,7 +26572,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>36</v>
@@ -26655,7 +26655,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>42</v>
@@ -26738,7 +26738,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>52</v>
@@ -26821,7 +26821,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>52</v>
@@ -26904,7 +26904,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>73</v>
@@ -26987,7 +26987,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>44</v>
@@ -27070,7 +27070,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>23</v>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>44</v>
@@ -27236,7 +27236,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>48</v>
@@ -27319,7 +27319,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>38</v>
@@ -27402,7 +27402,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -27485,7 +27485,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>50</v>
@@ -27568,7 +27568,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>38</v>
@@ -27651,10 +27651,10 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C304" s="2">
         <v>30</v>
@@ -27734,7 +27734,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>23</v>
@@ -27817,7 +27817,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>50</v>
@@ -27900,7 +27900,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>73</v>
@@ -27983,7 +27983,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>38</v>
@@ -28066,7 +28066,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>38</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>46</v>
@@ -28232,7 +28232,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>36</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>50</v>
@@ -28398,7 +28398,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>38</v>
@@ -28481,7 +28481,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>36</v>
@@ -28564,7 +28564,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>46</v>
@@ -28647,7 +28647,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>50</v>
@@ -28813,7 +28813,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>32</v>
@@ -28896,10 +28896,10 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C319" s="2">
         <v>11</v>
@@ -28979,7 +28979,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>29</v>
@@ -29062,7 +29062,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>52</v>
@@ -29145,7 +29145,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>48</v>
@@ -29228,10 +29228,10 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C323" s="2">
         <v>14</v>
@@ -29311,7 +29311,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>21</v>
@@ -29394,7 +29394,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>36</v>
@@ -29477,7 +29477,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>52</v>
@@ -29560,7 +29560,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>42</v>
@@ -29643,7 +29643,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>29</v>
@@ -29726,7 +29726,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>68</v>
@@ -29809,7 +29809,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>44</v>
@@ -29892,7 +29892,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>23</v>
@@ -29975,7 +29975,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>25</v>
@@ -30058,7 +30058,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>42</v>
@@ -30141,7 +30141,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>29</v>
@@ -30224,7 +30224,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>27</v>
@@ -30307,7 +30307,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>73</v>
@@ -30390,7 +30390,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>46</v>
@@ -30473,7 +30473,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>38</v>
@@ -30556,7 +30556,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>44</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>48</v>
@@ -30722,10 +30722,10 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C341" s="2">
         <v>16</v>
@@ -30805,10 +30805,10 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C342" s="2">
         <v>12</v>
@@ -30888,7 +30888,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>25</v>
@@ -30971,7 +30971,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>50</v>
@@ -31054,10 +31054,10 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C345" s="2">
         <v>20</v>
@@ -31137,7 +31137,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>32</v>
@@ -31220,7 +31220,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>34</v>
@@ -31303,10 +31303,10 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C348" s="2">
         <v>13</v>
@@ -31386,7 +31386,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>73</v>
@@ -31469,7 +31469,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>25</v>
@@ -31552,10 +31552,10 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C351" s="2">
         <v>9</v>
@@ -31635,10 +31635,10 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C352" s="2">
         <v>13</v>
@@ -31718,7 +31718,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>25</v>
@@ -31801,7 +31801,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>42</v>
@@ -31884,10 +31884,10 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C355" s="2">
         <v>10</v>
@@ -31967,7 +31967,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>25</v>
@@ -32050,7 +32050,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>68</v>
@@ -32133,7 +32133,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>27</v>
@@ -32216,7 +32216,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>42</v>
@@ -32299,7 +32299,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>46</v>
@@ -32382,7 +32382,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>66</v>
@@ -32465,7 +32465,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>25</v>
@@ -32548,7 +32548,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>48</v>
@@ -32631,7 +32631,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>52</v>
@@ -32714,7 +32714,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>73</v>
@@ -32797,7 +32797,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>27</v>
@@ -32880,7 +32880,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>73</v>
@@ -32963,7 +32963,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>66</v>
@@ -33046,7 +33046,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>29</v>
@@ -33129,7 +33129,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>42</v>
@@ -33212,7 +33212,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>32</v>
@@ -33295,7 +33295,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>68</v>
@@ -33378,7 +33378,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>32</v>
@@ -33461,7 +33461,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>42</v>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>23</v>
@@ -33627,7 +33627,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>48</v>
@@ -33710,7 +33710,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>66</v>
@@ -33793,7 +33793,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>27</v>
@@ -33876,7 +33876,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>21</v>
@@ -33959,7 +33959,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>21</v>
@@ -34042,7 +34042,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>38</v>
@@ -34125,10 +34125,10 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C382" s="2">
         <v>19</v>
@@ -34208,7 +34208,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>66</v>
@@ -34291,10 +34291,10 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C384" s="2">
         <v>12</v>
@@ -34374,7 +34374,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>27</v>
@@ -34457,7 +34457,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>73</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>73</v>
@@ -34623,7 +34623,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>66</v>
@@ -34706,10 +34706,10 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C389" s="2">
         <v>14</v>
@@ -34789,7 +34789,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>42</v>
@@ -34872,7 +34872,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>66</v>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>52</v>
@@ -35038,7 +35038,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>36</v>
@@ -35121,7 +35121,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>25</v>
@@ -35204,7 +35204,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>68</v>
@@ -35287,7 +35287,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>46</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>32</v>
@@ -35453,7 +35453,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>44</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>34</v>
@@ -35619,7 +35619,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>38</v>
@@ -35702,7 +35702,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>36</v>
@@ -35785,7 +35785,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>38</v>
@@ -35868,7 +35868,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>73</v>
@@ -35951,7 +35951,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>32</v>
@@ -36034,7 +36034,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>44</v>
@@ -36117,7 +36117,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>46</v>
@@ -36200,7 +36200,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>29</v>
@@ -36283,7 +36283,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>25</v>
@@ -36366,7 +36366,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>68</v>
@@ -36449,7 +36449,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>52</v>
@@ -36532,7 +36532,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>50</v>
@@ -36615,7 +36615,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>50</v>
@@ -36698,7 +36698,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>44</v>
@@ -36781,7 +36781,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>66</v>
@@ -36864,7 +36864,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>50</v>
@@ -36947,7 +36947,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>68</v>
@@ -37030,7 +37030,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>36</v>
@@ -37113,7 +37113,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>73</v>
@@ -37196,7 +37196,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>21</v>
@@ -37279,7 +37279,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>66</v>
@@ -37362,7 +37362,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>21</v>
@@ -37445,7 +37445,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>42</v>
@@ -37528,7 +37528,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>21</v>
@@ -37611,7 +37611,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>27</v>
@@ -37694,7 +37694,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>52</v>
@@ -37777,7 +37777,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>50</v>
@@ -37860,7 +37860,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>48</v>
@@ -37943,7 +37943,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>36</v>
@@ -38026,7 +38026,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>29</v>
@@ -38109,7 +38109,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>66</v>
@@ -38192,7 +38192,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>66</v>
@@ -38275,7 +38275,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>23</v>
@@ -38358,7 +38358,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>42</v>
@@ -38441,7 +38441,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>27</v>
@@ -38524,7 +38524,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>50</v>
@@ -38607,10 +38607,10 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C436" s="2">
         <v>12</v>
@@ -38690,7 +38690,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>50</v>
@@ -38773,7 +38773,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>34</v>
@@ -38856,7 +38856,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>27</v>
@@ -38939,7 +38939,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>23</v>
@@ -39022,7 +39022,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>73</v>
@@ -39105,10 +39105,10 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C442" s="2">
         <v>5</v>
@@ -39188,7 +39188,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>21</v>
@@ -39271,7 +39271,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>38</v>
@@ -39354,7 +39354,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>34</v>
@@ -39437,7 +39437,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>27</v>
@@ -39520,7 +39520,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>21</v>
@@ -39603,7 +39603,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>38</v>
@@ -39686,7 +39686,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>48</v>
@@ -39769,10 +39769,10 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C450" s="2">
         <v>3</v>
@@ -39852,7 +39852,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>44</v>
@@ -39935,7 +39935,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>68</v>
@@ -40018,7 +40018,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>42</v>
@@ -40101,7 +40101,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>27</v>
@@ -40184,7 +40184,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>29</v>
@@ -40267,7 +40267,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>66</v>
@@ -40350,7 +40350,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>29</v>
@@ -40433,7 +40433,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>46</v>
@@ -40599,7 +40599,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>38</v>
@@ -40682,7 +40682,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>73</v>
@@ -40765,7 +40765,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>36</v>
@@ -40848,7 +40848,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>48</v>
@@ -40931,7 +40931,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>46</v>
@@ -41014,10 +41014,10 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C465" s="2">
         <v>6</v>
@@ -41097,7 +41097,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>48</v>
@@ -41180,7 +41180,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>52</v>
@@ -41263,10 +41263,10 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C468" s="2">
         <v>4</v>
@@ -41346,7 +41346,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>46</v>
@@ -41429,7 +41429,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>66</v>
@@ -41512,7 +41512,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>34</v>
@@ -41595,7 +41595,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>21</v>
@@ -41678,7 +41678,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>42</v>
@@ -41761,7 +41761,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>73</v>
@@ -41844,7 +41844,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>46</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>36</v>
@@ -42010,7 +42010,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>32</v>
@@ -42093,7 +42093,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>27</v>
@@ -42176,10 +42176,10 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C479" s="2">
         <v>9</v>
@@ -42259,7 +42259,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>29</v>
@@ -42342,7 +42342,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>48</v>
@@ -42425,7 +42425,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>21</v>
@@ -42508,7 +42508,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>36</v>
@@ -42591,7 +42591,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>38</v>
@@ -42674,7 +42674,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>73</v>
@@ -42757,7 +42757,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>38</v>
@@ -42840,7 +42840,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>32</v>
@@ -42923,7 +42923,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>36</v>
@@ -43006,7 +43006,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>38</v>
@@ -43089,7 +43089,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>68</v>
@@ -43172,7 +43172,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>46</v>
@@ -43255,7 +43255,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>46</v>
@@ -43338,7 +43338,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>21</v>
@@ -43421,10 +43421,10 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C494" s="2">
         <v>3</v>
@@ -43504,7 +43504,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>34</v>
@@ -43587,7 +43587,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>52</v>
@@ -43670,7 +43670,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>25</v>
@@ -43753,7 +43753,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>68</v>
@@ -43836,7 +43836,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>34</v>
@@ -43919,10 +43919,10 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C500" s="2">
         <v>4</v>
